--- a/src/assets/upgrade/hełmy.xlsx
+++ b/src/assets/upgrade/hełmy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>Nazwa</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Zestaw strażnika</t>
   </si>
   <si>
-    <t>Unikalny hełm (nie jest częścią zestawu)</t>
-  </si>
-  <si>
     <t>Hełm Dzika Szablokłego +5</t>
   </si>
   <si>
@@ -380,6 +377,15 @@
   </si>
   <si>
     <t>Hełm Strażnika</t>
+  </si>
+  <si>
+    <t>Królewski hełm</t>
+  </si>
+  <si>
+    <t>Hełm Gargulca</t>
+  </si>
+  <si>
+    <t>Hełm Dzika</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="5">
         <v>300</v>
@@ -1446,7 +1452,7 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5">
         <v>500</v>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
@@ -1636,7 +1642,7 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="5">
         <v>250</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="5">
         <v>300</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5">
         <v>500</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5">
         <v>500</v>
@@ -2163,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
@@ -2206,7 +2212,7 @@
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="5">
         <v>600</v>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="5">
         <v>250</v>
@@ -2320,7 +2326,7 @@
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="5">
         <v>500</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="5">
         <v>450</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="6">
         <v>700</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="6">
         <v>700</v>
@@ -2472,7 +2478,7 @@
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="6">
         <v>800</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="5">
         <v>400</v>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="6">
         <v>700</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="6">
         <v>800</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="6">
         <v>800</v>
@@ -2738,7 +2744,7 @@
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5">
         <v>600</v>
@@ -2771,12 +2777,12 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="6">
         <v>200</v>
@@ -2809,12 +2815,12 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="6">
         <v>200</v>
@@ -2847,12 +2853,12 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="6">
         <v>200</v>
@@ -2885,12 +2891,12 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="6">
         <v>900</v>
@@ -2928,7 +2934,7 @@
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="6">
         <v>300</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6">
         <v>300</v>
@@ -3037,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1">
